--- a/other/input/2019/summer_2019_wqx_data/Taurianien/Fecal_Coliform_Results_Spreadsheet_Summer2019.xlsx
+++ b/other/input/2019/summer_2019_wqx_data/Taurianien/Fecal_Coliform_Results_Spreadsheet_Summer2019.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx-qaqc/other/input/2019/summer_2019_wqx_data/Taurianien/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmeyer\Documents\github_local\kenai-river-wqx-qaqc\other\input\2019\summer_2019_wqx_data\Taurianien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="11_B5BC18679FBAAC10F7C100A7775E5385CE94EBDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F23069F-CA72-4FC9-8A6C-9117AC03C9C6}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-570" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32568" yWindow="-576" windowWidth="21600" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Summer_2019_Fecal_Coliform" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="47">
   <si>
     <t>Fecal Coliform Analysis</t>
   </si>
@@ -173,12 +172,15 @@
   </si>
   <si>
     <t>Two RM 0 forms are labeled as "DUP." For ou rpurposes here, it does not matter which is the "DUP" and which is the original sample.</t>
+  </si>
+  <si>
+    <t>RM_31_Morgans_Landing_DUP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,9 +258,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,9 +298,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,7 +335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,44 +543,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6:K20"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="11" max="11" width="13.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="3"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="3"/>
+    <col min="11" max="11" width="13.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -619,7 +621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -658,7 +660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -697,7 +699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -736,7 +738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -775,7 +777,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -811,7 +813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -846,7 +848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -882,7 +884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -917,7 +919,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -952,7 +954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -987,7 +989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1022,7 +1024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1057,7 +1059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1092,9 +1094,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
         <v>0.46875</v>
@@ -1127,7 +1129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1162,7 +1164,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1200,7 +1202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1276,7 +1278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1350,7 +1352,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1386,7 +1388,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1422,7 +1424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1494,7 +1496,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:N29">
+  <sortState ref="A6:N29">
     <sortCondition ref="A6:A29"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1504,24 +1506,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
